--- a/data/trans_orig/P43-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D876F3E-2245-4754-891A-81379C78C5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18F4DBE-6AFA-4C43-84E2-06611694A120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5D52FDD-7685-4641-A690-9CD7CD8B9D4F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C336E80-C940-4141-98B7-65182E6B98B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>13,05%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>86,95%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>33,95%</t>
   </si>
   <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>61,89%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,19 +170,19 @@
     <t>75,64%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -191,37 +191,37 @@
     <t>46,53%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -233,121 +233,127 @@
     <t>6,39%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>89,15%</t>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>47,14%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2015 (Tasa respuesta: 50,46%)</t>
@@ -479,127 +485,121 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3D0F52-2384-4D80-A4E6-C463B1DE011D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3833CAFA-F640-4D92-AB48-F1EE109B4130}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,7 +2188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C54C14-1BFF-44D9-A0A9-8E1B4DB9E52C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE73DC0-879F-46C9-97D9-8DE258CCDB13}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2480,7 +2480,7 @@
         <v>70</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -2495,7 +2495,7 @@
         <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>525815</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>493</v>
@@ -2538,13 +2538,13 @@
         <v>525815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2623,13 @@
         <v>235383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -2638,13 +2638,13 @@
         <v>235383</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2672,13 @@
         <v>471463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -2687,13 +2687,13 @@
         <v>471463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2772,13 @@
         <v>410513</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>358</v>
@@ -2787,13 +2787,13 @@
         <v>410513</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2821,13 @@
         <v>204639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
@@ -2836,13 +2836,13 @@
         <v>204639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2921,13 @@
         <v>408088</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>370</v>
@@ -2936,13 +2936,13 @@
         <v>408088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2970,13 @@
         <v>37732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2985,13 +2985,13 @@
         <v>37732</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3070,13 @@
         <v>505897</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>479</v>
@@ -3085,13 +3085,13 @@
         <v>505897</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3119,13 @@
         <v>228769</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>207</v>
@@ -3134,13 +3134,13 @@
         <v>228769</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3219,13 @@
         <v>1667249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>1523</v>
@@ -3234,13 +3234,13 @@
         <v>1667249</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3268,13 @@
         <v>1869309</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1754</v>
@@ -3283,13 +3283,13 @@
         <v>1869309</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B11745C-77A6-4AFB-963D-95A8FAB60823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B6BC2D-B47A-474D-891F-280C979E6BE8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3382,7 +3382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3502,13 @@
         <v>21550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3517,13 +3517,13 @@
         <v>21550</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3551,13 @@
         <v>366116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>374</v>
@@ -3566,13 +3566,13 @@
         <v>366116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3651,13 @@
         <v>75300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -3666,13 +3666,13 @@
         <v>75300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3700,13 @@
         <v>486262</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -3715,13 +3715,13 @@
         <v>486262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3800,13 @@
         <v>226055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -3815,13 +3815,13 @@
         <v>226055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3849,13 @@
         <v>431911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>434</v>
@@ -3864,13 +3864,13 @@
         <v>431911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,10 +3952,10 @@
         <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>397</v>
@@ -3967,10 +3967,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,10 +4001,10 @@
         <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -4016,10 +4016,10 @@
         <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4098,13 @@
         <v>446851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>390</v>
@@ -4113,13 +4113,13 @@
         <v>446851</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4147,13 @@
         <v>47763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -4162,13 +4162,13 @@
         <v>47763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4247,13 @@
         <v>560117</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>480</v>
@@ -4262,13 +4262,13 @@
         <v>560117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4296,13 @@
         <v>210682</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -4311,13 +4311,13 @@
         <v>210682</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4396,13 @@
         <v>1757300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>1595</v>
@@ -4411,13 +4411,13 @@
         <v>1757300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4445,13 @@
         <v>1762390</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>1720</v>
@@ -4460,13 +4460,13 @@
         <v>1762390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AFB036-CFC1-4BB8-BD5C-A267629C8052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4647072C-6140-4F6F-BE9A-EA364F8B9416}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4559,7 +4559,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4679,13 +4679,13 @@
         <v>24013</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4694,13 +4694,13 @@
         <v>24013</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4728,13 @@
         <v>277069</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -4743,13 +4743,13 @@
         <v>277069</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4828,13 @@
         <v>55335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -4843,13 +4843,13 @@
         <v>55335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4877,13 @@
         <v>317110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
@@ -4892,13 +4892,13 @@
         <v>317110</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4977,13 @@
         <v>135192</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -4992,13 +4992,13 @@
         <v>135192</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,7 +5026,7 @@
         <v>266509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>161</v>
@@ -5041,7 +5041,7 @@
         <v>266509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>161</v>

--- a/data/trans_orig/P43-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18F4DBE-6AFA-4C43-84E2-06611694A120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F55EFFA0-3D00-49FE-8ADD-3D90AE73A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C336E80-C940-4141-98B7-65182E6B98B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CDF487F-9BE6-4CF2-9356-EAC361CCE2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="185">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>13,05%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>86,95%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>33,95%</t>
   </si>
   <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,385 +149,379 @@
     <t>61,89%</t>
   </si>
   <si>
-    <t>57,82%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2015 (Tasa respuesta: 50,46%)</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
     <t>62,33%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
   </si>
   <si>
     <t>61,95%</t>
@@ -1011,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3833CAFA-F640-4D92-AB48-F1EE109B4130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CF468C-C81E-4774-B2F7-0A695C86F053}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,7 +2182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE73DC0-879F-46C9-97D9-8DE258CCDB13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4220853-B71F-463D-A493-4DCBF07A243B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,7 +3359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B6BC2D-B47A-474D-891F-280C979E6BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E9FEE7-41C6-4961-B204-3EA31E109BC2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3952,10 +3946,10 @@
         <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>397</v>
@@ -3967,10 +3961,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,10 +3995,10 @@
         <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -4016,10 +4010,10 @@
         <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4092,13 @@
         <v>446851</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>390</v>
@@ -4113,13 +4107,13 @@
         <v>446851</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4141,13 @@
         <v>47763</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -4162,13 +4156,13 @@
         <v>47763</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4241,13 @@
         <v>560117</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>480</v>
@@ -4262,13 +4256,13 @@
         <v>560117</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4290,13 @@
         <v>210682</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -4311,13 +4305,13 @@
         <v>210682</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4390,13 @@
         <v>1757300</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>1595</v>
@@ -4411,13 +4405,13 @@
         <v>1757300</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4439,13 @@
         <v>1762390</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>1720</v>
@@ -4460,13 +4454,13 @@
         <v>1762390</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,7 +4536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4647072C-6140-4F6F-BE9A-EA364F8B9416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE697266-DB84-43F6-8BB8-96EE74F5EB9E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4559,7 +4553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4679,13 +4673,13 @@
         <v>24013</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4694,13 +4688,13 @@
         <v>24013</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4722,13 @@
         <v>277069</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -4743,13 +4737,13 @@
         <v>277069</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4822,13 @@
         <v>55335</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -4843,13 +4837,13 @@
         <v>55335</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4871,13 @@
         <v>317110</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
@@ -4892,13 +4886,13 @@
         <v>317110</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4971,13 @@
         <v>135192</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -4992,13 +4986,13 @@
         <v>135192</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5020,13 @@
         <v>266509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>376</v>
@@ -5041,13 +5035,13 @@
         <v>266509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5120,13 @@
         <v>324888</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>501</v>
@@ -5141,13 +5135,13 @@
         <v>324888</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5169,13 @@
         <v>199519</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5190,13 +5184,13 @@
         <v>199519</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5269,13 @@
         <v>349234</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>599</v>
@@ -5290,13 +5284,13 @@
         <v>349234</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5318,13 @@
         <v>88897</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -5339,13 +5333,13 @@
         <v>88897</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5418,13 @@
         <v>694307</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>1103</v>
@@ -5439,13 +5433,13 @@
         <v>694307</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5467,13 @@
         <v>178056</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -5488,13 +5482,13 @@
         <v>178056</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5567,13 @@
         <v>1582967</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>2467</v>
@@ -5588,13 +5582,13 @@
         <v>1582967</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5616,13 @@
         <v>1327161</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>1563</v>
@@ -5637,13 +5631,13 @@
         <v>1327161</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F55EFFA0-3D00-49FE-8ADD-3D90AE73A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E351F760-575E-4B5D-8772-FA9F0ACB7E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CDF487F-9BE6-4CF2-9356-EAC361CCE2C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BBBE7F3-665F-4880-9696-C595A50BAD66}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="187">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>13,05%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>86,95%</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>33,95%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>61,89%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,19 +170,19 @@
     <t>75,64%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -191,37 +191,37 @@
     <t>46,53%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -233,7 +233,7 @@
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>9,17%</t>
@@ -245,31 +245,25 @@
     <t>90,83%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>96,04%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>10,85%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>89,15%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>29,63%</t>
+    <t>29,73%</t>
   </si>
   <si>
     <t>36,99%</t>
@@ -281,79 +275,79 @@
     <t>63,01%</t>
   </si>
   <si>
-    <t>70,37%</t>
+    <t>70,27%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>47,14%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
@@ -362,115 +356,121 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>72,67%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
@@ -479,121 +479,127 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>85,14%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>33,65%</t>
   </si>
   <si>
-    <t>37,67%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>62,33%</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CF468C-C81E-4774-B2F7-0A695C86F053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BEE667-AC0C-486F-898C-C028BD0139B0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2182,7 +2188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4220853-B71F-463D-A493-4DCBF07A243B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056138D4-A281-411D-913F-AEFD1C57CFA0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2474,7 +2480,7 @@
         <v>70</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -2489,7 +2495,7 @@
         <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2523,13 @@
         <v>525815</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>493</v>
@@ -2532,13 +2538,13 @@
         <v>525815</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2623,13 @@
         <v>235383</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -2632,13 +2638,13 @@
         <v>235383</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2672,13 @@
         <v>471463</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -2681,13 +2687,13 @@
         <v>471463</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2772,13 @@
         <v>410513</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>358</v>
@@ -2781,13 +2787,13 @@
         <v>410513</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2821,13 @@
         <v>204639</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
@@ -2830,13 +2836,13 @@
         <v>204639</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2921,13 @@
         <v>408088</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>370</v>
@@ -2930,13 +2936,13 @@
         <v>408088</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2970,13 @@
         <v>37732</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2979,13 +2985,13 @@
         <v>37732</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3070,13 @@
         <v>505897</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>479</v>
@@ -3079,13 +3085,13 @@
         <v>505897</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3119,13 @@
         <v>228769</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>207</v>
@@ -3128,13 +3134,13 @@
         <v>228769</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3219,13 @@
         <v>1667249</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>1523</v>
@@ -3228,13 +3234,13 @@
         <v>1667249</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3268,13 @@
         <v>1869309</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1754</v>
@@ -3277,13 +3283,13 @@
         <v>1869309</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E9FEE7-41C6-4961-B204-3EA31E109BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E3A089-D865-4679-BEDD-966233A87DB2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3376,7 +3382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3496,13 +3502,13 @@
         <v>21550</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3511,13 +3517,13 @@
         <v>21550</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3551,13 @@
         <v>366116</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>374</v>
@@ -3560,13 +3566,13 @@
         <v>366116</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3651,13 @@
         <v>75300</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -3660,13 +3666,13 @@
         <v>75300</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3700,13 @@
         <v>486262</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -3709,13 +3715,13 @@
         <v>486262</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3800,13 @@
         <v>226055</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -3809,13 +3815,13 @@
         <v>226055</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3849,13 @@
         <v>431911</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>434</v>
@@ -3858,13 +3864,13 @@
         <v>431911</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,10 +3952,10 @@
         <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>397</v>
@@ -3961,10 +3967,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,10 +4001,10 @@
         <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -4010,10 +4016,10 @@
         <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE697266-DB84-43F6-8BB8-96EE74F5EB9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6019A8EF-5F19-4FF9-BCCE-DEA6F40E148E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4974,10 +4980,10 @@
         <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -4989,10 +4995,10 @@
         <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5026,13 @@
         <v>266509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>376</v>
@@ -5035,13 +5041,13 @@
         <v>266509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5126,13 @@
         <v>324888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>501</v>
@@ -5135,13 +5141,13 @@
         <v>324888</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5175,13 @@
         <v>199519</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5184,13 +5190,13 @@
         <v>199519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5275,13 @@
         <v>349234</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>599</v>
@@ -5284,13 +5290,13 @@
         <v>349234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5324,13 @@
         <v>88897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -5333,13 +5339,13 @@
         <v>88897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5424,13 @@
         <v>694307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>1103</v>
@@ -5433,13 +5439,13 @@
         <v>694307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5473,13 @@
         <v>178056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -5482,13 +5488,13 @@
         <v>178056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5573,13 @@
         <v>1582967</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>2467</v>
@@ -5582,13 +5588,13 @@
         <v>1582967</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5622,13 @@
         <v>1327161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>1563</v>
@@ -5631,13 +5637,13 @@
         <v>1327161</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E351F760-575E-4B5D-8772-FA9F0ACB7E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93485B95-F3F7-4051-A710-3762D0CB7842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BBBE7F3-665F-4880-9696-C595A50BAD66}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05573A77-57C6-4739-93A5-AFF4FF38D731}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="212">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>13,05%</t>
@@ -122,7 +122,7 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>33,95%</t>
@@ -143,7 +143,7 @@
     <t>69,55%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>61,89%</t>
@@ -164,7 +164,7 @@
     <t>42,81%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>75,64%</t>
@@ -185,25 +185,46 @@
     <t>28,39%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>37,91%</t>
@@ -314,22 +335,40 @@
     <t>11,48%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>47,14%</t>
@@ -437,22 +476,40 @@
     <t>12,79%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
   </si>
   <si>
     <t>49,93%</t>
@@ -476,130 +533,148 @@
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BEE667-AC0C-486F-898C-C028BD0139B0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413B4EFB-EAFF-4EBC-ACD2-7210C29E2D37}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1887,10 +1962,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="I19" s="7">
-        <v>310514</v>
+        <v>215164</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>49</v>
@@ -1902,10 +1977,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="N19" s="7">
-        <v>310514</v>
+        <v>215164</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -1936,10 +2011,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="I20" s="7">
-        <v>356893</v>
+        <v>124024</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>52</v>
@@ -1951,10 +2026,10 @@
         <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="N20" s="7">
-        <v>356893</v>
+        <v>124024</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>52</v>
@@ -1985,10 +2060,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>652</v>
+        <v>367</v>
       </c>
       <c r="I21" s="7">
-        <v>667407</v>
+        <v>339188</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2000,10 +2075,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>652</v>
+        <v>367</v>
       </c>
       <c r="N21" s="7">
-        <v>667407</v>
+        <v>339188</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2017,7 +2092,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2036,34 +2111,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>1252</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7">
-        <v>1273441</v>
+        <v>95351</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="7">
+        <v>84</v>
+      </c>
+      <c r="N22" s="7">
+        <v>95351</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="7">
-        <v>1252</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1273441</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,34 +2160,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>2025</v>
+        <v>201</v>
       </c>
       <c r="I23" s="7">
-        <v>2086053</v>
+        <v>232869</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="7">
+        <v>201</v>
+      </c>
+      <c r="N23" s="7">
+        <v>232869</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="7">
-        <v>2025</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2086053</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,48 +2209,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>285</v>
+      </c>
+      <c r="I24" s="7">
+        <v>328220</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>285</v>
+      </c>
+      <c r="N24" s="7">
+        <v>328220</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1252</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1273441</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1252</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1273441</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2025</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2086053</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2025</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2086053</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3277</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3359494</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3277</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3359494</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2188,8 +2413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056138D4-A281-411D-913F-AEFD1C57CFA0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078F3019-D22F-4768-92FE-5440651981AF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2205,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2325,13 +2550,13 @@
         <v>27387</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2340,13 +2565,13 @@
         <v>27387</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2599,13 @@
         <v>400890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>394</v>
@@ -2389,13 +2614,13 @@
         <v>400890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,10 +2699,10 @@
         <v>79982</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>23</v>
@@ -2489,10 +2714,10 @@
         <v>79982</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
@@ -2523,13 +2748,13 @@
         <v>525815</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M8" s="7">
         <v>493</v>
@@ -2538,13 +2763,13 @@
         <v>525815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2848,13 @@
         <v>235383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -2638,13 +2863,13 @@
         <v>235383</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2897,13 @@
         <v>471463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -2687,13 +2912,13 @@
         <v>471463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,31 +2994,31 @@
         <v>358</v>
       </c>
       <c r="I13" s="7">
-        <v>410513</v>
+        <v>410514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>358</v>
       </c>
       <c r="N13" s="7">
-        <v>410513</v>
+        <v>410514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +3046,13 @@
         <v>204639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
@@ -2836,13 +3061,13 @@
         <v>204639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +3092,7 @@
         <v>538</v>
       </c>
       <c r="I15" s="7">
-        <v>615152</v>
+        <v>615153</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2882,7 +3107,7 @@
         <v>538</v>
       </c>
       <c r="N15" s="7">
-        <v>615152</v>
+        <v>615153</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2921,13 +3146,13 @@
         <v>408088</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>370</v>
@@ -2936,13 +3161,13 @@
         <v>408088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +3195,13 @@
         <v>37732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2985,13 +3210,13 @@
         <v>37732</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,34 +3289,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="I19" s="7">
-        <v>505897</v>
+        <v>299497</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="N19" s="7">
-        <v>505897</v>
+        <v>299497</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,34 +3338,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>228769</v>
+        <v>51560</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="N20" s="7">
-        <v>228769</v>
+        <v>51560</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,10 +3387,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>686</v>
+        <v>341</v>
       </c>
       <c r="I21" s="7">
-        <v>734666</v>
+        <v>351057</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3177,10 +3402,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>686</v>
+        <v>341</v>
       </c>
       <c r="N21" s="7">
-        <v>734666</v>
+        <v>351057</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3194,7 +3419,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3213,34 +3438,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>1523</v>
+        <v>185</v>
       </c>
       <c r="I22" s="7">
-        <v>1667249</v>
+        <v>206399</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>1523</v>
+        <v>185</v>
       </c>
       <c r="N22" s="7">
-        <v>1667249</v>
+        <v>206399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,34 +3487,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1754</v>
+        <v>160</v>
       </c>
       <c r="I23" s="7">
-        <v>1869309</v>
+        <v>177209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
-        <v>1754</v>
+        <v>160</v>
       </c>
       <c r="N23" s="7">
-        <v>1869309</v>
+        <v>177209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,48 +3536,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>345</v>
+      </c>
+      <c r="I24" s="7">
+        <v>383608</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>383608</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1523</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1667249</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1523</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1667249</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1754</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1869309</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1754</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1869309</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3277</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3536558</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3277</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3536558</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3365,8 +3740,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E3A089-D865-4679-BEDD-966233A87DB2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63340501-E67F-4AC7-99E9-9562AF752E81}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3382,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3877,13 @@
         <v>21550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3517,13 +3892,13 @@
         <v>21550</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3926,13 @@
         <v>366116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>374</v>
@@ -3566,13 +3941,13 @@
         <v>366116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +4026,13 @@
         <v>75300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -3666,13 +4041,13 @@
         <v>75300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +4075,13 @@
         <v>486262</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -3715,13 +4090,13 @@
         <v>486262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +4175,13 @@
         <v>226055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -3815,13 +4190,13 @@
         <v>226055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +4224,13 @@
         <v>431911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>434</v>
@@ -3864,13 +4239,13 @@
         <v>431911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,10 +4327,10 @@
         <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>397</v>
@@ -3967,10 +4342,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,10 +4376,10 @@
         <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -4016,10 +4391,10 @@
         <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4473,13 @@
         <v>446851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>390</v>
@@ -4113,13 +4488,13 @@
         <v>446851</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4522,13 @@
         <v>47763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -4162,13 +4537,13 @@
         <v>47763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,34 +4616,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>480</v>
+        <v>302</v>
       </c>
       <c r="I19" s="7">
-        <v>560117</v>
+        <v>323145</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
-        <v>480</v>
+        <v>302</v>
       </c>
       <c r="N19" s="7">
-        <v>560117</v>
+        <v>323145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,34 +4665,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>210682</v>
+        <v>52542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M20" s="7">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="N20" s="7">
-        <v>210682</v>
+        <v>52542</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +4714,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>649</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>770799</v>
+        <v>375687</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4354,10 +4729,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>649</v>
+        <v>352</v>
       </c>
       <c r="N21" s="7">
-        <v>770799</v>
+        <v>375687</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4371,7 +4746,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4390,34 +4765,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>1595</v>
+        <v>178</v>
       </c>
       <c r="I22" s="7">
-        <v>1757300</v>
+        <v>236972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
-        <v>1595</v>
+        <v>178</v>
       </c>
       <c r="N22" s="7">
-        <v>1757300</v>
+        <v>236972</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,34 +4814,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1720</v>
+        <v>119</v>
       </c>
       <c r="I23" s="7">
-        <v>1762390</v>
+        <v>158140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
-        <v>1720</v>
+        <v>119</v>
       </c>
       <c r="N23" s="7">
-        <v>1762390</v>
+        <v>158140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,48 +4863,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>297</v>
+      </c>
+      <c r="I24" s="7">
+        <v>395112</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>297</v>
+      </c>
+      <c r="N24" s="7">
+        <v>395112</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1595</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1757300</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1595</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1757300</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1720</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1762390</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1720</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1762390</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3315</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3519690</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3315</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3519690</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4542,8 +5067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6019A8EF-5F19-4FF9-BCCE-DEA6F40E148E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EC1F13-3724-42D0-878D-282CC362333B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4559,7 +5084,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4676,31 +5201,31 @@
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>24013</v>
+        <v>21297</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>24013</v>
+        <v>21297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,31 +5250,31 @@
         <v>164</v>
       </c>
       <c r="I5" s="7">
-        <v>277069</v>
+        <v>242548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
       </c>
       <c r="N5" s="7">
-        <v>277069</v>
+        <v>242548</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,7 +5299,7 @@
         <v>176</v>
       </c>
       <c r="I6" s="7">
-        <v>301082</v>
+        <v>263845</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4789,7 +5314,7 @@
         <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>301082</v>
+        <v>263845</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4825,31 +5350,31 @@
         <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>55335</v>
+        <v>51913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>55335</v>
+        <v>51913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,31 +5399,31 @@
         <v>285</v>
       </c>
       <c r="I8" s="7">
-        <v>317110</v>
+        <v>343414</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
       </c>
       <c r="N8" s="7">
-        <v>317110</v>
+        <v>343414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +5448,7 @@
         <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>372445</v>
+        <v>395327</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4938,7 +5463,7 @@
         <v>337</v>
       </c>
       <c r="N9" s="7">
-        <v>372445</v>
+        <v>395327</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4974,31 +5499,31 @@
         <v>200</v>
       </c>
       <c r="I10" s="7">
-        <v>135192</v>
+        <v>126206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
       </c>
       <c r="N10" s="7">
-        <v>135192</v>
+        <v>126206</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,31 +5548,31 @@
         <v>376</v>
       </c>
       <c r="I11" s="7">
-        <v>266509</v>
+        <v>245155</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>376</v>
       </c>
       <c r="N11" s="7">
-        <v>266509</v>
+        <v>245155</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5597,7 @@
         <v>576</v>
       </c>
       <c r="I12" s="7">
-        <v>401701</v>
+        <v>371361</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5087,7 +5612,7 @@
         <v>576</v>
       </c>
       <c r="N12" s="7">
-        <v>401701</v>
+        <v>371361</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5123,31 +5648,31 @@
         <v>501</v>
       </c>
       <c r="I13" s="7">
-        <v>324888</v>
+        <v>326992</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>501</v>
       </c>
       <c r="N13" s="7">
-        <v>324888</v>
+        <v>326992</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,31 +5697,31 @@
         <v>288</v>
       </c>
       <c r="I14" s="7">
-        <v>199519</v>
+        <v>178956</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
       </c>
       <c r="N14" s="7">
-        <v>199519</v>
+        <v>178956</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,7 +5746,7 @@
         <v>789</v>
       </c>
       <c r="I15" s="7">
-        <v>524407</v>
+        <v>505948</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5236,7 +5761,7 @@
         <v>789</v>
       </c>
       <c r="N15" s="7">
-        <v>524407</v>
+        <v>505948</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5272,31 +5797,31 @@
         <v>599</v>
       </c>
       <c r="I16" s="7">
-        <v>349234</v>
+        <v>322252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>599</v>
       </c>
       <c r="N16" s="7">
-        <v>349234</v>
+        <v>322252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,31 +5846,31 @@
         <v>137</v>
       </c>
       <c r="I17" s="7">
-        <v>88897</v>
+        <v>78910</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
       </c>
       <c r="N17" s="7">
-        <v>88897</v>
+        <v>78910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,7 +5895,7 @@
         <v>736</v>
       </c>
       <c r="I18" s="7">
-        <v>438131</v>
+        <v>401162</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5385,7 +5910,7 @@
         <v>736</v>
       </c>
       <c r="N18" s="7">
-        <v>438131</v>
+        <v>401162</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5418,34 +5943,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>1103</v>
+        <v>561</v>
       </c>
       <c r="I19" s="7">
-        <v>694307</v>
+        <v>476092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
-        <v>1103</v>
+        <v>561</v>
       </c>
       <c r="N19" s="7">
-        <v>694307</v>
+        <v>476092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,34 +5992,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="I20" s="7">
-        <v>178056</v>
+        <v>50161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="N20" s="7">
-        <v>178056</v>
+        <v>50161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,10 +6041,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1416</v>
+        <v>656</v>
       </c>
       <c r="I21" s="7">
-        <v>872363</v>
+        <v>526253</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5531,10 +6056,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1416</v>
+        <v>656</v>
       </c>
       <c r="N21" s="7">
-        <v>872363</v>
+        <v>526253</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5548,7 +6073,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5567,34 +6092,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>2467</v>
+        <v>542</v>
       </c>
       <c r="I22" s="7">
-        <v>1582967</v>
+        <v>258386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
-        <v>2467</v>
+        <v>542</v>
       </c>
       <c r="N22" s="7">
-        <v>1582967</v>
+        <v>258386</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,34 +6141,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1563</v>
+        <v>218</v>
       </c>
       <c r="I23" s="7">
-        <v>1327161</v>
+        <v>108675</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
-        <v>1563</v>
+        <v>218</v>
       </c>
       <c r="N23" s="7">
-        <v>1327161</v>
+        <v>108675</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,48 +6190,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>760</v>
+      </c>
+      <c r="I24" s="7">
+        <v>367061</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>760</v>
+      </c>
+      <c r="N24" s="7">
+        <v>367061</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2467</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1583137</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2467</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1583137</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1563</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1247819</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1563</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1247819</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>4030</v>
       </c>
-      <c r="I24" s="7">
-        <v>2910128</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2830956</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>4030</v>
       </c>
-      <c r="N24" s="7">
-        <v>2910128</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>2830956</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
